--- a/store_shipping_destinations_split_shipment.xlsx
+++ b/store_shipping_destinations_split_shipment.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Masaüstü\Thesis\Rituals Data\Thesis_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAA1244-59A9-4646-8E75-6A1E975786B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECEFB58-4AE8-448F-8D6A-ECA93BFBAF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Distance" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Retail_Store</t>
   </si>
@@ -28,7 +29,13 @@
     <t>Primary_Outlet</t>
   </si>
   <si>
+    <t>Primary_Distance_km</t>
+  </si>
+  <si>
     <t>Secondary_Outlet</t>
+  </si>
+  <si>
+    <t>Secondary_Distance_km</t>
   </si>
 </sst>
 </file>
@@ -365,13 +372,14 @@
   <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -382,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -590,6 +598,9 @@
       <c r="B20">
         <v>2583</v>
       </c>
+      <c r="C20">
+        <v>2564</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -675,6 +686,9 @@
       <c r="B28">
         <v>2583</v>
       </c>
+      <c r="C28">
+        <v>2564</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -716,6 +730,9 @@
       <c r="B32">
         <v>2645</v>
       </c>
+      <c r="C32">
+        <v>2540</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -790,6 +807,9 @@
       <c r="B39">
         <v>2583</v>
       </c>
+      <c r="C39">
+        <v>2564</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -1018,6 +1038,9 @@
       <c r="B60">
         <v>2583</v>
       </c>
+      <c r="C60">
+        <v>2564</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -1070,6 +1093,9 @@
       <c r="B65">
         <v>2645</v>
       </c>
+      <c r="C65">
+        <v>2540</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
@@ -1166,6 +1192,9 @@
       <c r="B74">
         <v>2565</v>
       </c>
+      <c r="C74">
+        <v>2645</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
@@ -1196,6 +1225,9 @@
       <c r="B77">
         <v>2565</v>
       </c>
+      <c r="C77">
+        <v>2645</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -1270,6 +1302,9 @@
       <c r="B84">
         <v>2645</v>
       </c>
+      <c r="C84">
+        <v>2540</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -1311,6 +1346,9 @@
       <c r="B88">
         <v>2583</v>
       </c>
+      <c r="C88">
+        <v>2564</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
@@ -1396,6 +1434,9 @@
       <c r="B96">
         <v>2583</v>
       </c>
+      <c r="C96">
+        <v>2564</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
@@ -1404,6 +1445,9 @@
       <c r="B97">
         <v>2583</v>
       </c>
+      <c r="C97">
+        <v>2564</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
@@ -1500,6 +1544,9 @@
       <c r="B106">
         <v>2583</v>
       </c>
+      <c r="C106">
+        <v>2564</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
@@ -1508,6 +1555,9 @@
       <c r="B107">
         <v>2583</v>
       </c>
+      <c r="C107">
+        <v>2564</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
@@ -1516,6 +1566,9 @@
       <c r="B108">
         <v>2565</v>
       </c>
+      <c r="C108">
+        <v>2645</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
@@ -1524,6 +1577,9 @@
       <c r="B109">
         <v>2583</v>
       </c>
+      <c r="C109">
+        <v>2564</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
@@ -1532,6 +1588,9 @@
       <c r="B110">
         <v>2565</v>
       </c>
+      <c r="C110">
+        <v>2645</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
@@ -1639,6 +1698,9 @@
       <c r="B120">
         <v>2583</v>
       </c>
+      <c r="C120">
+        <v>2564</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
@@ -1735,6 +1797,9 @@
       <c r="B129">
         <v>2583</v>
       </c>
+      <c r="C129">
+        <v>2564</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
@@ -1787,6 +1852,9 @@
       <c r="B134">
         <v>2583</v>
       </c>
+      <c r="C134">
+        <v>2564</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
@@ -1839,6 +1907,9 @@
       <c r="B139">
         <v>2583</v>
       </c>
+      <c r="C139">
+        <v>2564</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
@@ -1847,6 +1918,9 @@
       <c r="B140">
         <v>2565</v>
       </c>
+      <c r="C140">
+        <v>2645</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
@@ -1998,6 +2072,9 @@
       <c r="B154">
         <v>2583</v>
       </c>
+      <c r="C154">
+        <v>2564</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
@@ -2083,6 +2160,9 @@
       <c r="B162">
         <v>2583</v>
       </c>
+      <c r="C162">
+        <v>2564</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
@@ -2134,6 +2214,9 @@
       </c>
       <c r="B167">
         <v>2583</v>
+      </c>
+      <c r="C167">
+        <v>2564</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -2195,4 +2278,2943 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE23B94D-E406-4872-ABEB-2637C79972A1}">
+  <dimension ref="A1:E172"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E172"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2501</v>
+      </c>
+      <c r="B2">
+        <v>2583</v>
+      </c>
+      <c r="C2">
+        <v>103.8</v>
+      </c>
+      <c r="D2">
+        <v>2564</v>
+      </c>
+      <c r="E2">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2502</v>
+      </c>
+      <c r="B3">
+        <v>2583</v>
+      </c>
+      <c r="C3">
+        <v>95.6</v>
+      </c>
+      <c r="D3">
+        <v>2564</v>
+      </c>
+      <c r="E3">
+        <v>148.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2503</v>
+      </c>
+      <c r="B4">
+        <v>2583</v>
+      </c>
+      <c r="C4">
+        <v>104.2</v>
+      </c>
+      <c r="D4">
+        <v>2564</v>
+      </c>
+      <c r="E4">
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2504</v>
+      </c>
+      <c r="B5">
+        <v>2583</v>
+      </c>
+      <c r="C5">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <v>2564</v>
+      </c>
+      <c r="E5">
+        <v>142.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2505</v>
+      </c>
+      <c r="B6">
+        <v>2583</v>
+      </c>
+      <c r="C6">
+        <v>98.5</v>
+      </c>
+      <c r="D6">
+        <v>2564</v>
+      </c>
+      <c r="E6">
+        <v>146.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2506</v>
+      </c>
+      <c r="B7">
+        <v>2583</v>
+      </c>
+      <c r="C7">
+        <v>102.9</v>
+      </c>
+      <c r="D7">
+        <v>2564</v>
+      </c>
+      <c r="E7">
+        <v>142.30000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2507</v>
+      </c>
+      <c r="B8">
+        <v>2540</v>
+      </c>
+      <c r="C8">
+        <v>28.3</v>
+      </c>
+      <c r="D8">
+        <v>2645</v>
+      </c>
+      <c r="E8">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2509</v>
+      </c>
+      <c r="B9">
+        <v>2583</v>
+      </c>
+      <c r="C9">
+        <v>94.5</v>
+      </c>
+      <c r="D9">
+        <v>2564</v>
+      </c>
+      <c r="E9">
+        <v>151.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2510</v>
+      </c>
+      <c r="B10">
+        <v>2583</v>
+      </c>
+      <c r="C10">
+        <v>95.6</v>
+      </c>
+      <c r="D10">
+        <v>2564</v>
+      </c>
+      <c r="E10">
+        <v>147.69999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2511</v>
+      </c>
+      <c r="B11">
+        <v>2583</v>
+      </c>
+      <c r="C11">
+        <v>76.2</v>
+      </c>
+      <c r="D11">
+        <v>2564</v>
+      </c>
+      <c r="E11">
+        <v>316.60000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2512</v>
+      </c>
+      <c r="B12">
+        <v>2583</v>
+      </c>
+      <c r="C12">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>2564</v>
+      </c>
+      <c r="E12">
+        <v>140.19999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2513</v>
+      </c>
+      <c r="B13">
+        <v>2583</v>
+      </c>
+      <c r="C13">
+        <v>238.5</v>
+      </c>
+      <c r="D13">
+        <v>2564</v>
+      </c>
+      <c r="E13">
+        <v>267.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2514</v>
+      </c>
+      <c r="B14">
+        <v>2564</v>
+      </c>
+      <c r="C14">
+        <v>114</v>
+      </c>
+      <c r="D14">
+        <v>2583</v>
+      </c>
+      <c r="E14">
+        <v>134.19999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2515</v>
+      </c>
+      <c r="B15">
+        <v>2583</v>
+      </c>
+      <c r="C15">
+        <v>102.3</v>
+      </c>
+      <c r="D15">
+        <v>2564</v>
+      </c>
+      <c r="E15">
+        <v>142.69999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2516</v>
+      </c>
+      <c r="B16">
+        <v>2565</v>
+      </c>
+      <c r="C16">
+        <v>45.7</v>
+      </c>
+      <c r="D16">
+        <v>2645</v>
+      </c>
+      <c r="E16">
+        <v>196.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2517</v>
+      </c>
+      <c r="B17">
+        <v>2565</v>
+      </c>
+      <c r="C17">
+        <v>43.9</v>
+      </c>
+      <c r="D17">
+        <v>2645</v>
+      </c>
+      <c r="E17">
+        <v>195.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2518</v>
+      </c>
+      <c r="B18">
+        <v>2583</v>
+      </c>
+      <c r="C18">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>2564</v>
+      </c>
+      <c r="E18">
+        <v>254.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2519</v>
+      </c>
+      <c r="B19">
+        <v>2583</v>
+      </c>
+      <c r="C19">
+        <v>98.1</v>
+      </c>
+      <c r="D19">
+        <v>2564</v>
+      </c>
+      <c r="E19">
+        <v>146.80000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2520</v>
+      </c>
+      <c r="B20">
+        <v>2583</v>
+      </c>
+      <c r="C20">
+        <v>271.5</v>
+      </c>
+      <c r="D20">
+        <v>2564</v>
+      </c>
+      <c r="E20">
+        <v>441.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2521</v>
+      </c>
+      <c r="B21">
+        <v>2583</v>
+      </c>
+      <c r="C21">
+        <v>101.1</v>
+      </c>
+      <c r="D21">
+        <v>2564</v>
+      </c>
+      <c r="E21">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2522</v>
+      </c>
+      <c r="B22">
+        <v>2564</v>
+      </c>
+      <c r="C22">
+        <v>119.6</v>
+      </c>
+      <c r="D22">
+        <v>2583</v>
+      </c>
+      <c r="E22">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2523</v>
+      </c>
+      <c r="B23">
+        <v>2583</v>
+      </c>
+      <c r="C23">
+        <v>114.9</v>
+      </c>
+      <c r="D23">
+        <v>2564</v>
+      </c>
+      <c r="E23">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2524</v>
+      </c>
+      <c r="B24">
+        <v>2583</v>
+      </c>
+      <c r="C24">
+        <v>115.1</v>
+      </c>
+      <c r="D24">
+        <v>2564</v>
+      </c>
+      <c r="E24">
+        <v>128.30000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2525</v>
+      </c>
+      <c r="B25">
+        <v>2583</v>
+      </c>
+      <c r="C25">
+        <v>114.7</v>
+      </c>
+      <c r="D25">
+        <v>2564</v>
+      </c>
+      <c r="E25">
+        <v>137.80000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2526</v>
+      </c>
+      <c r="B26">
+        <v>2583</v>
+      </c>
+      <c r="C26">
+        <v>215.8</v>
+      </c>
+      <c r="D26">
+        <v>2564</v>
+      </c>
+      <c r="E26">
+        <v>245.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2527</v>
+      </c>
+      <c r="B27">
+        <v>2644</v>
+      </c>
+      <c r="C27">
+        <v>142.5</v>
+      </c>
+      <c r="D27">
+        <v>2564</v>
+      </c>
+      <c r="E27">
+        <v>175.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2530</v>
+      </c>
+      <c r="B28">
+        <v>2583</v>
+      </c>
+      <c r="C28">
+        <v>218.3</v>
+      </c>
+      <c r="D28">
+        <v>2564</v>
+      </c>
+      <c r="E28">
+        <v>429.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2531</v>
+      </c>
+      <c r="B29">
+        <v>2644</v>
+      </c>
+      <c r="C29">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>2564</v>
+      </c>
+      <c r="E29">
+        <v>271.10000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2532</v>
+      </c>
+      <c r="B30">
+        <v>2565</v>
+      </c>
+      <c r="C30">
+        <v>291.8</v>
+      </c>
+      <c r="D30">
+        <v>2645</v>
+      </c>
+      <c r="E30">
+        <v>332.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2533</v>
+      </c>
+      <c r="B31">
+        <v>2583</v>
+      </c>
+      <c r="C31">
+        <v>87.2</v>
+      </c>
+      <c r="D31">
+        <v>2564</v>
+      </c>
+      <c r="E31">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2535</v>
+      </c>
+      <c r="B32">
+        <v>2645</v>
+      </c>
+      <c r="C32">
+        <v>443.6</v>
+      </c>
+      <c r="D32">
+        <v>2540</v>
+      </c>
+      <c r="E32">
+        <v>456.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2537</v>
+      </c>
+      <c r="B33">
+        <v>2583</v>
+      </c>
+      <c r="C33">
+        <v>139.1</v>
+      </c>
+      <c r="D33">
+        <v>2564</v>
+      </c>
+      <c r="E33">
+        <v>170.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2538</v>
+      </c>
+      <c r="B34">
+        <v>2540</v>
+      </c>
+      <c r="C34">
+        <v>29.7</v>
+      </c>
+      <c r="D34">
+        <v>2645</v>
+      </c>
+      <c r="E34">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2539</v>
+      </c>
+      <c r="B35">
+        <v>2583</v>
+      </c>
+      <c r="C35">
+        <v>51.9</v>
+      </c>
+      <c r="D35">
+        <v>2564</v>
+      </c>
+      <c r="E35">
+        <v>252.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2541</v>
+      </c>
+      <c r="B36">
+        <v>2540</v>
+      </c>
+      <c r="C36">
+        <v>29.4</v>
+      </c>
+      <c r="D36">
+        <v>2645</v>
+      </c>
+      <c r="E36">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2542</v>
+      </c>
+      <c r="B37">
+        <v>2565</v>
+      </c>
+      <c r="C37">
+        <v>177.7</v>
+      </c>
+      <c r="D37">
+        <v>2645</v>
+      </c>
+      <c r="E37">
+        <v>229.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2543</v>
+      </c>
+      <c r="B38">
+        <v>2583</v>
+      </c>
+      <c r="C38">
+        <v>238.9</v>
+      </c>
+      <c r="D38">
+        <v>2564</v>
+      </c>
+      <c r="E38">
+        <v>267.39999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2546</v>
+      </c>
+      <c r="B39">
+        <v>2583</v>
+      </c>
+      <c r="C39">
+        <v>352</v>
+      </c>
+      <c r="D39">
+        <v>2564</v>
+      </c>
+      <c r="E39">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2547</v>
+      </c>
+      <c r="B40">
+        <v>2565</v>
+      </c>
+      <c r="C40">
+        <v>183.6</v>
+      </c>
+      <c r="D40">
+        <v>2645</v>
+      </c>
+      <c r="E40">
+        <v>231.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2548</v>
+      </c>
+      <c r="B41">
+        <v>2583</v>
+      </c>
+      <c r="C41">
+        <v>98.9</v>
+      </c>
+      <c r="D41">
+        <v>2564</v>
+      </c>
+      <c r="E41">
+        <v>147.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2549</v>
+      </c>
+      <c r="B42">
+        <v>2644</v>
+      </c>
+      <c r="C42">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="D42">
+        <v>2564</v>
+      </c>
+      <c r="E42">
+        <v>249.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2550</v>
+      </c>
+      <c r="B43">
+        <v>2583</v>
+      </c>
+      <c r="C43">
+        <v>106.3</v>
+      </c>
+      <c r="D43">
+        <v>2564</v>
+      </c>
+      <c r="E43">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2551</v>
+      </c>
+      <c r="B44">
+        <v>2645</v>
+      </c>
+      <c r="C44">
+        <v>57.5</v>
+      </c>
+      <c r="D44">
+        <v>2540</v>
+      </c>
+      <c r="E44">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2552</v>
+      </c>
+      <c r="B45">
+        <v>2565</v>
+      </c>
+      <c r="C45">
+        <v>96.7</v>
+      </c>
+      <c r="D45">
+        <v>2645</v>
+      </c>
+      <c r="E45">
+        <v>225.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2553</v>
+      </c>
+      <c r="B46">
+        <v>2583</v>
+      </c>
+      <c r="C46">
+        <v>102.9</v>
+      </c>
+      <c r="D46">
+        <v>2564</v>
+      </c>
+      <c r="E46">
+        <v>142.19999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2554</v>
+      </c>
+      <c r="B47">
+        <v>2644</v>
+      </c>
+      <c r="C47">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D47">
+        <v>2564</v>
+      </c>
+      <c r="E47">
+        <v>270.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2555</v>
+      </c>
+      <c r="B48">
+        <v>2565</v>
+      </c>
+      <c r="C48">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D48">
+        <v>2645</v>
+      </c>
+      <c r="E48">
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2556</v>
+      </c>
+      <c r="B49">
+        <v>2564</v>
+      </c>
+      <c r="C49">
+        <v>185.4</v>
+      </c>
+      <c r="D49">
+        <v>2540</v>
+      </c>
+      <c r="E49">
+        <v>186.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2557</v>
+      </c>
+      <c r="B50">
+        <v>2583</v>
+      </c>
+      <c r="C50">
+        <v>101.4</v>
+      </c>
+      <c r="D50">
+        <v>2564</v>
+      </c>
+      <c r="E50">
+        <v>144.30000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2558</v>
+      </c>
+      <c r="B51">
+        <v>2644</v>
+      </c>
+      <c r="C51">
+        <v>100.1</v>
+      </c>
+      <c r="D51">
+        <v>2564</v>
+      </c>
+      <c r="E51">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2559</v>
+      </c>
+      <c r="B52">
+        <v>2565</v>
+      </c>
+      <c r="C52">
+        <v>35.4</v>
+      </c>
+      <c r="D52">
+        <v>2645</v>
+      </c>
+      <c r="E52">
+        <v>182.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2560</v>
+      </c>
+      <c r="B53">
+        <v>2583</v>
+      </c>
+      <c r="C53">
+        <v>98.4</v>
+      </c>
+      <c r="D53">
+        <v>2564</v>
+      </c>
+      <c r="E53">
+        <v>341.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2561</v>
+      </c>
+      <c r="B54">
+        <v>2583</v>
+      </c>
+      <c r="C54">
+        <v>240</v>
+      </c>
+      <c r="D54">
+        <v>2564</v>
+      </c>
+      <c r="E54">
+        <v>264.10000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2562</v>
+      </c>
+      <c r="B55">
+        <v>2540</v>
+      </c>
+      <c r="C55">
+        <v>29.4</v>
+      </c>
+      <c r="D55">
+        <v>2645</v>
+      </c>
+      <c r="E55">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2563</v>
+      </c>
+      <c r="B56">
+        <v>2583</v>
+      </c>
+      <c r="C56">
+        <v>112.5</v>
+      </c>
+      <c r="D56">
+        <v>2564</v>
+      </c>
+      <c r="E56">
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2566</v>
+      </c>
+      <c r="B57">
+        <v>2644</v>
+      </c>
+      <c r="C57">
+        <v>33.5</v>
+      </c>
+      <c r="D57">
+        <v>2564</v>
+      </c>
+      <c r="E57">
+        <v>269.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2568</v>
+      </c>
+      <c r="B58">
+        <v>2583</v>
+      </c>
+      <c r="C58">
+        <v>101.3</v>
+      </c>
+      <c r="D58">
+        <v>2564</v>
+      </c>
+      <c r="E58">
+        <v>143.30000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2569</v>
+      </c>
+      <c r="B59">
+        <v>2583</v>
+      </c>
+      <c r="C59">
+        <v>271.3</v>
+      </c>
+      <c r="D59">
+        <v>2564</v>
+      </c>
+      <c r="E59">
+        <v>343.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2570</v>
+      </c>
+      <c r="B60">
+        <v>2583</v>
+      </c>
+      <c r="C60">
+        <v>342.4</v>
+      </c>
+      <c r="D60">
+        <v>2564</v>
+      </c>
+      <c r="E60">
+        <v>486.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2571</v>
+      </c>
+      <c r="B61">
+        <v>2540</v>
+      </c>
+      <c r="C61">
+        <v>162.5</v>
+      </c>
+      <c r="D61">
+        <v>2645</v>
+      </c>
+      <c r="E61">
+        <v>174.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2572</v>
+      </c>
+      <c r="B62">
+        <v>2565</v>
+      </c>
+      <c r="C62">
+        <v>92.8</v>
+      </c>
+      <c r="D62">
+        <v>2645</v>
+      </c>
+      <c r="E62">
+        <v>225.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2573</v>
+      </c>
+      <c r="B63">
+        <v>2583</v>
+      </c>
+      <c r="C63">
+        <v>103.6</v>
+      </c>
+      <c r="D63">
+        <v>2564</v>
+      </c>
+      <c r="E63">
+        <v>142.19999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2576</v>
+      </c>
+      <c r="B64">
+        <v>2564</v>
+      </c>
+      <c r="C64">
+        <v>113.8</v>
+      </c>
+      <c r="D64">
+        <v>2583</v>
+      </c>
+      <c r="E64">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2577</v>
+      </c>
+      <c r="B65">
+        <v>2645</v>
+      </c>
+      <c r="C65">
+        <v>451.1</v>
+      </c>
+      <c r="D65">
+        <v>2540</v>
+      </c>
+      <c r="E65">
+        <v>464.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2578</v>
+      </c>
+      <c r="B66">
+        <v>2583</v>
+      </c>
+      <c r="C66">
+        <v>75.8</v>
+      </c>
+      <c r="D66">
+        <v>2564</v>
+      </c>
+      <c r="E66">
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2579</v>
+      </c>
+      <c r="B67">
+        <v>2644</v>
+      </c>
+      <c r="C67">
+        <v>95.2</v>
+      </c>
+      <c r="D67">
+        <v>2564</v>
+      </c>
+      <c r="E67">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2580</v>
+      </c>
+      <c r="B68">
+        <v>2644</v>
+      </c>
+      <c r="C68">
+        <v>141.5</v>
+      </c>
+      <c r="D68">
+        <v>2564</v>
+      </c>
+      <c r="E68">
+        <v>157.19999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2581</v>
+      </c>
+      <c r="B69">
+        <v>2583</v>
+      </c>
+      <c r="C69">
+        <v>101</v>
+      </c>
+      <c r="D69">
+        <v>2564</v>
+      </c>
+      <c r="E69">
+        <v>146.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2582</v>
+      </c>
+      <c r="B70">
+        <v>2565</v>
+      </c>
+      <c r="C70">
+        <v>286</v>
+      </c>
+      <c r="D70">
+        <v>2645</v>
+      </c>
+      <c r="E70">
+        <v>329.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2584</v>
+      </c>
+      <c r="B71">
+        <v>2565</v>
+      </c>
+      <c r="C71">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="D71">
+        <v>2645</v>
+      </c>
+      <c r="E71">
+        <v>240.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2585</v>
+      </c>
+      <c r="B72">
+        <v>2644</v>
+      </c>
+      <c r="C72">
+        <v>128</v>
+      </c>
+      <c r="D72">
+        <v>2564</v>
+      </c>
+      <c r="E72">
+        <v>245.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2586</v>
+      </c>
+      <c r="B73">
+        <v>2540</v>
+      </c>
+      <c r="C73">
+        <v>64.7</v>
+      </c>
+      <c r="D73">
+        <v>2645</v>
+      </c>
+      <c r="E73">
+        <v>129.69999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2587</v>
+      </c>
+      <c r="B74">
+        <v>2565</v>
+      </c>
+      <c r="C74">
+        <v>523.79999999999995</v>
+      </c>
+      <c r="D74">
+        <v>2645</v>
+      </c>
+      <c r="E74">
+        <v>550.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2588</v>
+      </c>
+      <c r="B75">
+        <v>2565</v>
+      </c>
+      <c r="C75">
+        <v>290.8</v>
+      </c>
+      <c r="D75">
+        <v>2645</v>
+      </c>
+      <c r="E75">
+        <v>337.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2590</v>
+      </c>
+      <c r="B76">
+        <v>2564</v>
+      </c>
+      <c r="C76">
+        <v>98.7</v>
+      </c>
+      <c r="D76">
+        <v>2583</v>
+      </c>
+      <c r="E76">
+        <v>227.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2591</v>
+      </c>
+      <c r="B77">
+        <v>2565</v>
+      </c>
+      <c r="C77">
+        <v>486</v>
+      </c>
+      <c r="D77">
+        <v>2645</v>
+      </c>
+      <c r="E77">
+        <v>506.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2592</v>
+      </c>
+      <c r="B78">
+        <v>2565</v>
+      </c>
+      <c r="C78">
+        <v>289.60000000000002</v>
+      </c>
+      <c r="D78">
+        <v>2645</v>
+      </c>
+      <c r="E78">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2593</v>
+      </c>
+      <c r="B79">
+        <v>2583</v>
+      </c>
+      <c r="C79">
+        <v>178.3</v>
+      </c>
+      <c r="D79">
+        <v>2564</v>
+      </c>
+      <c r="E79">
+        <v>275.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2594</v>
+      </c>
+      <c r="B80">
+        <v>2565</v>
+      </c>
+      <c r="C80">
+        <v>183.6</v>
+      </c>
+      <c r="D80">
+        <v>2645</v>
+      </c>
+      <c r="E80">
+        <v>230.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2595</v>
+      </c>
+      <c r="B81">
+        <v>2565</v>
+      </c>
+      <c r="C81">
+        <v>96.4</v>
+      </c>
+      <c r="D81">
+        <v>2645</v>
+      </c>
+      <c r="E81">
+        <v>225.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2596</v>
+      </c>
+      <c r="B82">
+        <v>2583</v>
+      </c>
+      <c r="C82">
+        <v>82.6</v>
+      </c>
+      <c r="D82">
+        <v>2564</v>
+      </c>
+      <c r="E82">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2597</v>
+      </c>
+      <c r="B83">
+        <v>2583</v>
+      </c>
+      <c r="C83">
+        <v>140.5</v>
+      </c>
+      <c r="D83">
+        <v>2564</v>
+      </c>
+      <c r="E83">
+        <v>218.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2598</v>
+      </c>
+      <c r="B84">
+        <v>2645</v>
+      </c>
+      <c r="C84">
+        <v>444.4</v>
+      </c>
+      <c r="D84">
+        <v>2540</v>
+      </c>
+      <c r="E84">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2599</v>
+      </c>
+      <c r="B85">
+        <v>2540</v>
+      </c>
+      <c r="C85">
+        <v>63.9</v>
+      </c>
+      <c r="D85">
+        <v>2645</v>
+      </c>
+      <c r="E85">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2600</v>
+      </c>
+      <c r="B86">
+        <v>2583</v>
+      </c>
+      <c r="C86">
+        <v>225.6</v>
+      </c>
+      <c r="D86">
+        <v>2564</v>
+      </c>
+      <c r="E86">
+        <v>333.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2601</v>
+      </c>
+      <c r="B87">
+        <v>2583</v>
+      </c>
+      <c r="C87">
+        <v>87.5</v>
+      </c>
+      <c r="D87">
+        <v>2564</v>
+      </c>
+      <c r="E87">
+        <v>158.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2602</v>
+      </c>
+      <c r="B88">
+        <v>2583</v>
+      </c>
+      <c r="C88">
+        <v>216.9</v>
+      </c>
+      <c r="D88">
+        <v>2564</v>
+      </c>
+      <c r="E88">
+        <v>429.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2603</v>
+      </c>
+      <c r="B89">
+        <v>2540</v>
+      </c>
+      <c r="C89">
+        <v>74.7</v>
+      </c>
+      <c r="D89">
+        <v>2645</v>
+      </c>
+      <c r="E89">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2604</v>
+      </c>
+      <c r="B90">
+        <v>2583</v>
+      </c>
+      <c r="C90">
+        <v>98.5</v>
+      </c>
+      <c r="D90">
+        <v>2564</v>
+      </c>
+      <c r="E90">
+        <v>145.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2605</v>
+      </c>
+      <c r="B91">
+        <v>2583</v>
+      </c>
+      <c r="C91">
+        <v>90.8</v>
+      </c>
+      <c r="D91">
+        <v>2564</v>
+      </c>
+      <c r="E91">
+        <v>154.19999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2606</v>
+      </c>
+      <c r="B92">
+        <v>2583</v>
+      </c>
+      <c r="C92">
+        <v>117.9</v>
+      </c>
+      <c r="D92">
+        <v>2564</v>
+      </c>
+      <c r="E92">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2607</v>
+      </c>
+      <c r="B93">
+        <v>2583</v>
+      </c>
+      <c r="C93">
+        <v>107</v>
+      </c>
+      <c r="D93">
+        <v>2564</v>
+      </c>
+      <c r="E93">
+        <v>136.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2608</v>
+      </c>
+      <c r="B94">
+        <v>2565</v>
+      </c>
+      <c r="C94">
+        <v>163.4</v>
+      </c>
+      <c r="D94">
+        <v>2645</v>
+      </c>
+      <c r="E94">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2609</v>
+      </c>
+      <c r="B95">
+        <v>2565</v>
+      </c>
+      <c r="C95">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D95">
+        <v>2645</v>
+      </c>
+      <c r="E95">
+        <v>188.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2610</v>
+      </c>
+      <c r="B96">
+        <v>2583</v>
+      </c>
+      <c r="C96">
+        <v>344.6</v>
+      </c>
+      <c r="D96">
+        <v>2564</v>
+      </c>
+      <c r="E96">
+        <v>557.29999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2611</v>
+      </c>
+      <c r="B97">
+        <v>2583</v>
+      </c>
+      <c r="C97">
+        <v>275.2</v>
+      </c>
+      <c r="D97">
+        <v>2564</v>
+      </c>
+      <c r="E97">
+        <v>442.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2612</v>
+      </c>
+      <c r="B98">
+        <v>2565</v>
+      </c>
+      <c r="C98">
+        <v>171.7</v>
+      </c>
+      <c r="D98">
+        <v>2645</v>
+      </c>
+      <c r="E98">
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2613</v>
+      </c>
+      <c r="B99">
+        <v>2645</v>
+      </c>
+      <c r="C99">
+        <v>53.6</v>
+      </c>
+      <c r="D99">
+        <v>2540</v>
+      </c>
+      <c r="E99">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2614</v>
+      </c>
+      <c r="B100">
+        <v>2583</v>
+      </c>
+      <c r="C100">
+        <v>93</v>
+      </c>
+      <c r="D100">
+        <v>2564</v>
+      </c>
+      <c r="E100">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2615</v>
+      </c>
+      <c r="B101">
+        <v>2583</v>
+      </c>
+      <c r="C101">
+        <v>119.5</v>
+      </c>
+      <c r="D101">
+        <v>2564</v>
+      </c>
+      <c r="E101">
+        <v>293.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2616</v>
+      </c>
+      <c r="B102">
+        <v>2583</v>
+      </c>
+      <c r="C102">
+        <v>232.9</v>
+      </c>
+      <c r="D102">
+        <v>2564</v>
+      </c>
+      <c r="E102">
+        <v>260.60000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2617</v>
+      </c>
+      <c r="B103">
+        <v>2583</v>
+      </c>
+      <c r="C103">
+        <v>216.7</v>
+      </c>
+      <c r="D103">
+        <v>2564</v>
+      </c>
+      <c r="E103">
+        <v>298.60000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2618</v>
+      </c>
+      <c r="B104">
+        <v>2564</v>
+      </c>
+      <c r="C104">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="D104">
+        <v>2540</v>
+      </c>
+      <c r="E104">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2619</v>
+      </c>
+      <c r="B105">
+        <v>2583</v>
+      </c>
+      <c r="C105">
+        <v>94.7</v>
+      </c>
+      <c r="D105">
+        <v>2564</v>
+      </c>
+      <c r="E105">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2620</v>
+      </c>
+      <c r="B106">
+        <v>2583</v>
+      </c>
+      <c r="C106">
+        <v>302</v>
+      </c>
+      <c r="D106">
+        <v>2564</v>
+      </c>
+      <c r="E106">
+        <v>486.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2621</v>
+      </c>
+      <c r="B107">
+        <v>2583</v>
+      </c>
+      <c r="C107">
+        <v>403</v>
+      </c>
+      <c r="D107">
+        <v>2564</v>
+      </c>
+      <c r="E107">
+        <v>633.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2622</v>
+      </c>
+      <c r="B108">
+        <v>2565</v>
+      </c>
+      <c r="C108">
+        <v>441.4</v>
+      </c>
+      <c r="D108">
+        <v>2645</v>
+      </c>
+      <c r="E108">
+        <v>459.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2623</v>
+      </c>
+      <c r="B109">
+        <v>2583</v>
+      </c>
+      <c r="C109">
+        <v>404.7</v>
+      </c>
+      <c r="D109">
+        <v>2564</v>
+      </c>
+      <c r="E109">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2624</v>
+      </c>
+      <c r="B110">
+        <v>2565</v>
+      </c>
+      <c r="C110">
+        <v>439.6</v>
+      </c>
+      <c r="D110">
+        <v>2645</v>
+      </c>
+      <c r="E110">
+        <v>478.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2625</v>
+      </c>
+      <c r="B111">
+        <v>2565</v>
+      </c>
+      <c r="C111">
+        <v>283</v>
+      </c>
+      <c r="D111">
+        <v>2645</v>
+      </c>
+      <c r="E111">
+        <v>325.39999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2626</v>
+      </c>
+      <c r="B112">
+        <v>2583</v>
+      </c>
+      <c r="C112">
+        <v>201.2</v>
+      </c>
+      <c r="D112">
+        <v>2564</v>
+      </c>
+      <c r="E112">
+        <v>358.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2627</v>
+      </c>
+      <c r="B113">
+        <v>2583</v>
+      </c>
+      <c r="C113">
+        <v>376</v>
+      </c>
+      <c r="D113">
+        <v>2645</v>
+      </c>
+      <c r="E113">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2628</v>
+      </c>
+      <c r="B114">
+        <v>2645</v>
+      </c>
+      <c r="C114">
+        <v>381.5</v>
+      </c>
+      <c r="D114">
+        <v>2540</v>
+      </c>
+      <c r="E114">
+        <v>396.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2629</v>
+      </c>
+      <c r="B115">
+        <v>2583</v>
+      </c>
+      <c r="C115">
+        <v>108.7</v>
+      </c>
+      <c r="D115">
+        <v>2564</v>
+      </c>
+      <c r="E115">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2630</v>
+      </c>
+      <c r="B116">
+        <v>2564</v>
+      </c>
+      <c r="C116">
+        <v>214.6</v>
+      </c>
+      <c r="D116">
+        <v>2583</v>
+      </c>
+      <c r="E116">
+        <v>258.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2631</v>
+      </c>
+      <c r="B117">
+        <v>2540</v>
+      </c>
+      <c r="C117">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="D117">
+        <v>2645</v>
+      </c>
+      <c r="E117">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2633</v>
+      </c>
+      <c r="B118">
+        <v>2583</v>
+      </c>
+      <c r="C118">
+        <v>74.3</v>
+      </c>
+      <c r="D118">
+        <v>2564</v>
+      </c>
+      <c r="E118">
+        <v>195.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2634</v>
+      </c>
+      <c r="B119">
+        <v>2583</v>
+      </c>
+      <c r="C119">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="D119">
+        <v>2564</v>
+      </c>
+      <c r="E119">
+        <v>220.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2635</v>
+      </c>
+      <c r="B120">
+        <v>2583</v>
+      </c>
+      <c r="C120">
+        <v>312.10000000000002</v>
+      </c>
+      <c r="D120">
+        <v>2564</v>
+      </c>
+      <c r="E120">
+        <v>499.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2636</v>
+      </c>
+      <c r="B121">
+        <v>2564</v>
+      </c>
+      <c r="C121">
+        <v>188.5</v>
+      </c>
+      <c r="D121">
+        <v>2583</v>
+      </c>
+      <c r="E121">
+        <v>236.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2637</v>
+      </c>
+      <c r="B122">
+        <v>2565</v>
+      </c>
+      <c r="C122">
+        <v>56.3</v>
+      </c>
+      <c r="D122">
+        <v>2645</v>
+      </c>
+      <c r="E122">
+        <v>148.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2638</v>
+      </c>
+      <c r="B123">
+        <v>2583</v>
+      </c>
+      <c r="C123">
+        <v>122.7</v>
+      </c>
+      <c r="D123">
+        <v>2564</v>
+      </c>
+      <c r="E123">
+        <v>292.39999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2639</v>
+      </c>
+      <c r="B124">
+        <v>2565</v>
+      </c>
+      <c r="C124">
+        <v>200.2</v>
+      </c>
+      <c r="D124">
+        <v>2645</v>
+      </c>
+      <c r="E124">
+        <v>317.10000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2640</v>
+      </c>
+      <c r="B125">
+        <v>2583</v>
+      </c>
+      <c r="C125">
+        <v>100</v>
+      </c>
+      <c r="D125">
+        <v>2564</v>
+      </c>
+      <c r="E125">
+        <v>145.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2641</v>
+      </c>
+      <c r="B126">
+        <v>2583</v>
+      </c>
+      <c r="C126">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="D126">
+        <v>2564</v>
+      </c>
+      <c r="E126">
+        <v>169.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2642</v>
+      </c>
+      <c r="B127">
+        <v>2645</v>
+      </c>
+      <c r="C127">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D127">
+        <v>2540</v>
+      </c>
+      <c r="E127">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2643</v>
+      </c>
+      <c r="B128">
+        <v>2644</v>
+      </c>
+      <c r="C128">
+        <v>147.6</v>
+      </c>
+      <c r="D128">
+        <v>2564</v>
+      </c>
+      <c r="E128">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2646</v>
+      </c>
+      <c r="B129">
+        <v>2583</v>
+      </c>
+      <c r="C129">
+        <v>215.1</v>
+      </c>
+      <c r="D129">
+        <v>2564</v>
+      </c>
+      <c r="E129">
+        <v>429.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2647</v>
+      </c>
+      <c r="B130">
+        <v>2583</v>
+      </c>
+      <c r="C130">
+        <v>111.5</v>
+      </c>
+      <c r="D130">
+        <v>2564</v>
+      </c>
+      <c r="E130">
+        <v>138.69999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2648</v>
+      </c>
+      <c r="B131">
+        <v>2540</v>
+      </c>
+      <c r="C131">
+        <v>304.2</v>
+      </c>
+      <c r="D131">
+        <v>2645</v>
+      </c>
+      <c r="E131">
+        <v>309.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2649</v>
+      </c>
+      <c r="B132">
+        <v>2565</v>
+      </c>
+      <c r="C132">
+        <v>191.6</v>
+      </c>
+      <c r="D132">
+        <v>2645</v>
+      </c>
+      <c r="E132">
+        <v>305.39999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2650</v>
+      </c>
+      <c r="B133">
+        <v>2645</v>
+      </c>
+      <c r="C133">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="D133">
+        <v>2540</v>
+      </c>
+      <c r="E133">
+        <v>288.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2651</v>
+      </c>
+      <c r="B134">
+        <v>2583</v>
+      </c>
+      <c r="C134">
+        <v>385.4</v>
+      </c>
+      <c r="D134">
+        <v>2564</v>
+      </c>
+      <c r="E134">
+        <v>613.20000000000005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2652</v>
+      </c>
+      <c r="B135">
+        <v>2644</v>
+      </c>
+      <c r="C135">
+        <v>37.4</v>
+      </c>
+      <c r="D135">
+        <v>2564</v>
+      </c>
+      <c r="E135">
+        <v>270.10000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2653</v>
+      </c>
+      <c r="B136">
+        <v>2565</v>
+      </c>
+      <c r="C136">
+        <v>86.6</v>
+      </c>
+      <c r="D136">
+        <v>2645</v>
+      </c>
+      <c r="E136">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2654</v>
+      </c>
+      <c r="B137">
+        <v>2565</v>
+      </c>
+      <c r="C137">
+        <v>48.4</v>
+      </c>
+      <c r="D137">
+        <v>2645</v>
+      </c>
+      <c r="E137">
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2655</v>
+      </c>
+      <c r="B138">
+        <v>2644</v>
+      </c>
+      <c r="C138">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="D138">
+        <v>2564</v>
+      </c>
+      <c r="E138">
+        <v>158.30000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2656</v>
+      </c>
+      <c r="B139">
+        <v>2583</v>
+      </c>
+      <c r="C139">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="D139">
+        <v>2564</v>
+      </c>
+      <c r="E139">
+        <v>446.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2657</v>
+      </c>
+      <c r="B140">
+        <v>2565</v>
+      </c>
+      <c r="C140">
+        <v>401</v>
+      </c>
+      <c r="D140">
+        <v>2645</v>
+      </c>
+      <c r="E140">
+        <v>435.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2658</v>
+      </c>
+      <c r="B141">
+        <v>2564</v>
+      </c>
+      <c r="C141">
+        <v>185</v>
+      </c>
+      <c r="D141">
+        <v>2583</v>
+      </c>
+      <c r="E141">
+        <v>195.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2659</v>
+      </c>
+      <c r="B142">
+        <v>2564</v>
+      </c>
+      <c r="C142">
+        <v>183.5</v>
+      </c>
+      <c r="D142">
+        <v>2644</v>
+      </c>
+      <c r="E142">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2660</v>
+      </c>
+      <c r="B143">
+        <v>2564</v>
+      </c>
+      <c r="C143">
+        <v>229.6</v>
+      </c>
+      <c r="D143">
+        <v>2583</v>
+      </c>
+      <c r="E143">
+        <v>240.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>2661</v>
+      </c>
+      <c r="B144">
+        <v>2583</v>
+      </c>
+      <c r="C144">
+        <v>81.5</v>
+      </c>
+      <c r="D144">
+        <v>2564</v>
+      </c>
+      <c r="E144">
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2662</v>
+      </c>
+      <c r="B145">
+        <v>2645</v>
+      </c>
+      <c r="C145">
+        <v>338.5</v>
+      </c>
+      <c r="D145">
+        <v>2540</v>
+      </c>
+      <c r="E145">
+        <v>344.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>2663</v>
+      </c>
+      <c r="B146">
+        <v>2583</v>
+      </c>
+      <c r="C146">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="D146">
+        <v>2564</v>
+      </c>
+      <c r="E146">
+        <v>364.7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>2664</v>
+      </c>
+      <c r="B147">
+        <v>2583</v>
+      </c>
+      <c r="C147">
+        <v>179.1</v>
+      </c>
+      <c r="D147">
+        <v>2564</v>
+      </c>
+      <c r="E147">
+        <v>274.2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2665</v>
+      </c>
+      <c r="B148">
+        <v>2583</v>
+      </c>
+      <c r="C148">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="D148">
+        <v>2564</v>
+      </c>
+      <c r="E148">
+        <v>365.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>2666</v>
+      </c>
+      <c r="B149">
+        <v>2583</v>
+      </c>
+      <c r="C149">
+        <v>87.2</v>
+      </c>
+      <c r="D149">
+        <v>2564</v>
+      </c>
+      <c r="E149">
+        <v>320.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>2667</v>
+      </c>
+      <c r="B150">
+        <v>2644</v>
+      </c>
+      <c r="C150">
+        <v>153.4</v>
+      </c>
+      <c r="D150">
+        <v>2564</v>
+      </c>
+      <c r="E150">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2668</v>
+      </c>
+      <c r="B151">
+        <v>2583</v>
+      </c>
+      <c r="C151">
+        <v>215.6</v>
+      </c>
+      <c r="D151">
+        <v>2564</v>
+      </c>
+      <c r="E151">
+        <v>221.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>2669</v>
+      </c>
+      <c r="B152">
+        <v>2564</v>
+      </c>
+      <c r="C152">
+        <v>68.7</v>
+      </c>
+      <c r="D152">
+        <v>2583</v>
+      </c>
+      <c r="E152">
+        <v>232.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2670</v>
+      </c>
+      <c r="B153">
+        <v>2644</v>
+      </c>
+      <c r="C153">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="D153">
+        <v>2564</v>
+      </c>
+      <c r="E153">
+        <v>216.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>2671</v>
+      </c>
+      <c r="B154">
+        <v>2583</v>
+      </c>
+      <c r="C154">
+        <v>355.2</v>
+      </c>
+      <c r="D154">
+        <v>2564</v>
+      </c>
+      <c r="E154">
+        <v>587.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>2672</v>
+      </c>
+      <c r="B155">
+        <v>2540</v>
+      </c>
+      <c r="C155">
+        <v>29.9</v>
+      </c>
+      <c r="D155">
+        <v>2645</v>
+      </c>
+      <c r="E155">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>2673</v>
+      </c>
+      <c r="B156">
+        <v>2540</v>
+      </c>
+      <c r="C156">
+        <v>31.1</v>
+      </c>
+      <c r="D156">
+        <v>2645</v>
+      </c>
+      <c r="E156">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>2674</v>
+      </c>
+      <c r="B157">
+        <v>2564</v>
+      </c>
+      <c r="C157">
+        <v>232.9</v>
+      </c>
+      <c r="D157">
+        <v>2583</v>
+      </c>
+      <c r="E157">
+        <v>239.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>2675</v>
+      </c>
+      <c r="B158">
+        <v>2583</v>
+      </c>
+      <c r="C158">
+        <v>75.3</v>
+      </c>
+      <c r="D158">
+        <v>2564</v>
+      </c>
+      <c r="E158">
+        <v>171.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>2676</v>
+      </c>
+      <c r="B159">
+        <v>2583</v>
+      </c>
+      <c r="C159">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="D159">
+        <v>2564</v>
+      </c>
+      <c r="E159">
+        <v>212.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>2677</v>
+      </c>
+      <c r="B160">
+        <v>2565</v>
+      </c>
+      <c r="C160">
+        <v>232.3</v>
+      </c>
+      <c r="D160">
+        <v>2645</v>
+      </c>
+      <c r="E160">
+        <v>253.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2678</v>
+      </c>
+      <c r="B161">
+        <v>2565</v>
+      </c>
+      <c r="C161">
+        <v>51.1</v>
+      </c>
+      <c r="D161">
+        <v>2645</v>
+      </c>
+      <c r="E161">
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>2679</v>
+      </c>
+      <c r="B162">
+        <v>2583</v>
+      </c>
+      <c r="C162">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="D162">
+        <v>2564</v>
+      </c>
+      <c r="E162">
+        <v>439.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>2680</v>
+      </c>
+      <c r="B163">
+        <v>2583</v>
+      </c>
+      <c r="C163">
+        <v>95.6</v>
+      </c>
+      <c r="D163">
+        <v>2564</v>
+      </c>
+      <c r="E163">
+        <v>147.9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>2681</v>
+      </c>
+      <c r="B164">
+        <v>2540</v>
+      </c>
+      <c r="C164">
+        <v>47.6</v>
+      </c>
+      <c r="D164">
+        <v>2645</v>
+      </c>
+      <c r="E164">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>2682</v>
+      </c>
+      <c r="B165">
+        <v>2583</v>
+      </c>
+      <c r="C165">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="D165">
+        <v>2564</v>
+      </c>
+      <c r="E165">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2683</v>
+      </c>
+      <c r="B166">
+        <v>2583</v>
+      </c>
+      <c r="C166">
+        <v>105.1</v>
+      </c>
+      <c r="D166">
+        <v>2564</v>
+      </c>
+      <c r="E166">
+        <v>139.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>2684</v>
+      </c>
+      <c r="B167">
+        <v>2583</v>
+      </c>
+      <c r="C167">
+        <v>275.5</v>
+      </c>
+      <c r="D167">
+        <v>2564</v>
+      </c>
+      <c r="E167">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>2685</v>
+      </c>
+      <c r="B168">
+        <v>2565</v>
+      </c>
+      <c r="C168">
+        <v>211.2</v>
+      </c>
+      <c r="D168">
+        <v>2645</v>
+      </c>
+      <c r="E168">
+        <v>211.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>2686</v>
+      </c>
+      <c r="B169">
+        <v>2583</v>
+      </c>
+      <c r="C169">
+        <v>105.3</v>
+      </c>
+      <c r="D169">
+        <v>2564</v>
+      </c>
+      <c r="E169">
+        <v>283.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>2687</v>
+      </c>
+      <c r="B170">
+        <v>2565</v>
+      </c>
+      <c r="C170">
+        <v>44.2</v>
+      </c>
+      <c r="D170">
+        <v>2645</v>
+      </c>
+      <c r="E170">
+        <v>119.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2688</v>
+      </c>
+      <c r="B171">
+        <v>2583</v>
+      </c>
+      <c r="C171">
+        <v>204</v>
+      </c>
+      <c r="D171">
+        <v>2564</v>
+      </c>
+      <c r="E171">
+        <v>365.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>2689</v>
+      </c>
+      <c r="B172">
+        <v>2583</v>
+      </c>
+      <c r="C172">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="D172">
+        <v>2564</v>
+      </c>
+      <c r="E172">
+        <v>170.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>